--- a/dados/Jogos XLSX/2023 CBFA - Oilers vs Tigres.xlsx
+++ b/dados/Jogos XLSX/2023 CBFA - Oilers vs Tigres.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\statsTigres\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\StatsTigres\dados\Jogos XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60565AC4-ADF1-4ED2-886A-820A801278D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5921AF49-D340-4DD2-8CFF-C484810F7231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="104">
   <si>
     <t>Equipe</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>CBFA D2</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -36286,15 +36289,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>10</v>
       </c>
@@ -36310,8 +36316,11 @@
       <c r="E1" s="55" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>56</v>
       </c>
@@ -36327,47 +36336,51 @@
       <c r="E2" s="55">
         <v>2023</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>CONCATENATE(E2," - ",D2," - ",B2," - vs. ",A2," - ",C2)</f>
+        <v>2023 - CBFA D2 - Rodada 1 - vs. Oilers - Fora</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="56"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="56"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="56"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/dados/Jogos XLSX/2023 CBFA - Oilers vs Tigres.xlsx
+++ b/dados/Jogos XLSX/2023 CBFA - Oilers vs Tigres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\StatsTigres\dados\Jogos XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C9D876-5458-4C17-B627-4292C6BFFFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1516FB4D-F774-48AD-8D45-43493663286E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17148,8 +17148,8 @@
   </sheetPr>
   <dimension ref="A1:AH999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AH2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17290,11 +17290,11 @@
         <v>0</v>
       </c>
       <c r="D2" s="45">
-        <f t="shared" ref="D2:D101" si="0">B2-C2</f>
+        <f t="shared" ref="D2" si="0">B2-C2</f>
         <v>0</v>
       </c>
       <c r="E2" s="45">
-        <f>SUMIFS(Geral!U$2:U994,Geral!O$2:O994,"Passe",Geral!A$2:A994,"Tigres",Geral!S$2:S994,A2)</f>
+        <f>SUMIFS(Geral!U$2:U994,Geral!R$2:R994,"Passe",Geral!A$2:A994,"Tigres",Geral!S$2:S994,A2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="45">
@@ -17318,7 +17318,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="45">
-        <f t="shared" ref="K2:K101" si="1">J2-L2</f>
+        <f t="shared" ref="K2" si="1">J2-L2</f>
         <v>0</v>
       </c>
       <c r="L2" s="45">
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="45">
-        <f>SUMIFS(Geral!U$2:U995,Geral!O$2:O995,"Passe",Geral!A$2:A995,"Tigres",Geral!S$2:S995,A3)</f>
+        <f>SUMIFS(Geral!U$2:U995,Geral!R$2:R995,"Passe",Geral!A$2:A995,"Tigres",Geral!S$2:S995,A3)</f>
         <v>0</v>
       </c>
       <c r="F3" s="45">
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="45">
-        <f>SUMIFS(Geral!U$2:U996,Geral!O$2:O996,"Passe",Geral!A$2:A996,"Tigres",Geral!S$2:S996,A4)</f>
+        <f>SUMIFS(Geral!U$2:U996,Geral!R$2:R996,"Passe",Geral!A$2:A996,"Tigres",Geral!S$2:S996,A4)</f>
         <v>0</v>
       </c>
       <c r="F4" s="45">
@@ -17669,7 +17669,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="45">
-        <f>SUMIFS(Geral!U$2:U997,Geral!O$2:O997,"Passe",Geral!A$2:A997,"Tigres",Geral!S$2:S997,A5)</f>
+        <f>SUMIFS(Geral!U$2:U997,Geral!R$2:R997,"Passe",Geral!A$2:A997,"Tigres",Geral!S$2:S997,A5)</f>
         <v>0</v>
       </c>
       <c r="F5" s="45">
@@ -17794,7 +17794,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="45">
-        <f>SUMIFS(Geral!U$2:U998,Geral!O$2:O998,"Passe",Geral!A$2:A998,"Tigres",Geral!S$2:S998,A6)</f>
+        <f>SUMIFS(Geral!U$2:U998,Geral!R$2:R998,"Passe",Geral!A$2:A998,"Tigres",Geral!S$2:S998,A6)</f>
         <v>0</v>
       </c>
       <c r="F6" s="45">
@@ -17919,7 +17919,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="45">
-        <f>SUMIFS(Geral!U$2:U999,Geral!O$2:O999,"Passe",Geral!A$2:A999,"Tigres",Geral!S$2:S999,A7)</f>
+        <f>SUMIFS(Geral!U$2:U999,Geral!R$2:R999,"Passe",Geral!A$2:A999,"Tigres",Geral!S$2:S999,A7)</f>
         <v>0</v>
       </c>
       <c r="F7" s="45">
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="45">
-        <f>SUMIFS(Geral!U$2:U1000,Geral!O$2:O1000,"Passe",Geral!A$2:A1000,"Tigres",Geral!S$2:S1000,A8)</f>
+        <f>SUMIFS(Geral!U$2:U1000,Geral!R$2:R1000,"Passe",Geral!A$2:A1000,"Tigres",Geral!S$2:S1000,A8)</f>
         <v>0</v>
       </c>
       <c r="F8" s="45">
@@ -18169,7 +18169,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="45">
-        <f>SUMIFS(Geral!U$2:U1001,Geral!O$2:O1001,"Passe",Geral!A$2:A1001,"Tigres",Geral!S$2:S1001,A9)</f>
+        <f>SUMIFS(Geral!U$2:U1001,Geral!R$2:R1001,"Passe",Geral!A$2:A1001,"Tigres",Geral!S$2:S1001,A9)</f>
         <v>0</v>
       </c>
       <c r="F9" s="45">
@@ -18294,7 +18294,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="45">
-        <f>SUMIFS(Geral!U$2:U1002,Geral!O$2:O1002,"Passe",Geral!A$2:A1002,"Tigres",Geral!S$2:S1002,A10)</f>
+        <f>SUMIFS(Geral!U$2:U1002,Geral!R$2:R1002,"Passe",Geral!A$2:A1002,"Tigres",Geral!S$2:S1002,A10)</f>
         <v>0</v>
       </c>
       <c r="F10" s="45">
@@ -18419,7 +18419,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="45">
-        <f>SUMIFS(Geral!U$2:U1003,Geral!O$2:O1003,"Passe",Geral!A$2:A1003,"Tigres",Geral!S$2:S1003,A11)</f>
+        <f>SUMIFS(Geral!U$2:U1003,Geral!R$2:R1003,"Passe",Geral!A$2:A1003,"Tigres",Geral!S$2:S1003,A11)</f>
         <v>0</v>
       </c>
       <c r="F11" s="45">
@@ -18544,7 +18544,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="45">
-        <f>SUMIFS(Geral!U$2:U1004,Geral!O$2:O1004,"Passe",Geral!A$2:A1004,"Tigres",Geral!S$2:S1004,A12)</f>
+        <f>SUMIFS(Geral!U$2:U1004,Geral!R$2:R1004,"Passe",Geral!A$2:A1004,"Tigres",Geral!S$2:S1004,A12)</f>
         <v>0</v>
       </c>
       <c r="F12" s="45">
@@ -18669,8 +18669,8 @@
         <v>3</v>
       </c>
       <c r="E13" s="45">
-        <f>SUMIFS(Geral!U$2:U1005,Geral!O$2:O1005,"Passe",Geral!A$2:A1005,"Tigres",Geral!S$2:S1005,A13)</f>
-        <v>0</v>
+        <f>SUMIFS(Geral!U$2:U1005,Geral!R$2:R1005,"Passe",Geral!A$2:A1005,"Tigres",Geral!S$2:S1005,A13)</f>
+        <v>46</v>
       </c>
       <c r="F13" s="45">
         <f>COUNTIFS(Geral!R$2:R1005,"Passe",Geral!A$2:A1005,"Tigres",Geral!S$2:S1005,A13,Geral!V$2:V1005,"Sim")</f>
@@ -18794,7 +18794,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="45">
-        <f>SUMIFS(Geral!U$2:U1006,Geral!O$2:O1006,"Passe",Geral!A$2:A1006,"Tigres",Geral!S$2:S1006,A14)</f>
+        <f>SUMIFS(Geral!U$2:U1006,Geral!R$2:R1006,"Passe",Geral!A$2:A1006,"Tigres",Geral!S$2:S1006,A14)</f>
         <v>0</v>
       </c>
       <c r="F14" s="45">
@@ -18919,7 +18919,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="45">
-        <f>SUMIFS(Geral!U$2:U1007,Geral!O$2:O1007,"Passe",Geral!A$2:A1007,"Tigres",Geral!S$2:S1007,A15)</f>
+        <f>SUMIFS(Geral!U$2:U1007,Geral!R$2:R1007,"Passe",Geral!A$2:A1007,"Tigres",Geral!S$2:S1007,A15)</f>
         <v>0</v>
       </c>
       <c r="F15" s="45">
@@ -19044,7 +19044,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="45">
-        <f>SUMIFS(Geral!U$2:U1008,Geral!O$2:O1008,"Passe",Geral!A$2:A1008,"Tigres",Geral!S$2:S1008,A16)</f>
+        <f>SUMIFS(Geral!U$2:U1008,Geral!R$2:R1008,"Passe",Geral!A$2:A1008,"Tigres",Geral!S$2:S1008,A16)</f>
         <v>0</v>
       </c>
       <c r="F16" s="45">
@@ -19169,7 +19169,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="45">
-        <f>SUMIFS(Geral!U$2:U1009,Geral!O$2:O1009,"Passe",Geral!A$2:A1009,"Tigres",Geral!S$2:S1009,A17)</f>
+        <f>SUMIFS(Geral!U$2:U1009,Geral!R$2:R1009,"Passe",Geral!A$2:A1009,"Tigres",Geral!S$2:S1009,A17)</f>
         <v>0</v>
       </c>
       <c r="F17" s="45">
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="45">
-        <f>SUMIFS(Geral!U$2:U1010,Geral!O$2:O1010,"Passe",Geral!A$2:A1010,"Tigres",Geral!S$2:S1010,A18)</f>
+        <f>SUMIFS(Geral!U$2:U1010,Geral!R$2:R1010,"Passe",Geral!A$2:A1010,"Tigres",Geral!S$2:S1010,A18)</f>
         <v>0</v>
       </c>
       <c r="F18" s="45">
@@ -19419,7 +19419,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="45">
-        <f>SUMIFS(Geral!U$2:U1011,Geral!O$2:O1011,"Passe",Geral!A$2:A1011,"Tigres",Geral!S$2:S1011,A19)</f>
+        <f>SUMIFS(Geral!U$2:U1011,Geral!R$2:R1011,"Passe",Geral!A$2:A1011,"Tigres",Geral!S$2:S1011,A19)</f>
         <v>0</v>
       </c>
       <c r="F19" s="45">
@@ -19544,7 +19544,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="45">
-        <f>SUMIFS(Geral!U$2:U1012,Geral!O$2:O1012,"Passe",Geral!A$2:A1012,"Tigres",Geral!S$2:S1012,A20)</f>
+        <f>SUMIFS(Geral!U$2:U1012,Geral!R$2:R1012,"Passe",Geral!A$2:A1012,"Tigres",Geral!S$2:S1012,A20)</f>
         <v>0</v>
       </c>
       <c r="F20" s="45">
@@ -19669,7 +19669,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="45">
-        <f>SUMIFS(Geral!U$2:U1013,Geral!O$2:O1013,"Passe",Geral!A$2:A1013,"Tigres",Geral!S$2:S1013,A21)</f>
+        <f>SUMIFS(Geral!U$2:U1013,Geral!R$2:R1013,"Passe",Geral!A$2:A1013,"Tigres",Geral!S$2:S1013,A21)</f>
         <v>0</v>
       </c>
       <c r="F21" s="45">
@@ -19794,7 +19794,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="45">
-        <f>SUMIFS(Geral!U$2:U1014,Geral!O$2:O1014,"Passe",Geral!A$2:A1014,"Tigres",Geral!S$2:S1014,A22)</f>
+        <f>SUMIFS(Geral!U$2:U1014,Geral!R$2:R1014,"Passe",Geral!A$2:A1014,"Tigres",Geral!S$2:S1014,A22)</f>
         <v>0</v>
       </c>
       <c r="F22" s="45">
@@ -19919,7 +19919,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="45">
-        <f>SUMIFS(Geral!U$2:U1015,Geral!O$2:O1015,"Passe",Geral!A$2:A1015,"Tigres",Geral!S$2:S1015,A23)</f>
+        <f>SUMIFS(Geral!U$2:U1015,Geral!R$2:R1015,"Passe",Geral!A$2:A1015,"Tigres",Geral!S$2:S1015,A23)</f>
         <v>0</v>
       </c>
       <c r="F23" s="45">
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="45">
-        <f>SUMIFS(Geral!U$2:U1016,Geral!O$2:O1016,"Passe",Geral!A$2:A1016,"Tigres",Geral!S$2:S1016,A24)</f>
+        <f>SUMIFS(Geral!U$2:U1016,Geral!R$2:R1016,"Passe",Geral!A$2:A1016,"Tigres",Geral!S$2:S1016,A24)</f>
         <v>0</v>
       </c>
       <c r="F24" s="45">
@@ -20169,7 +20169,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="45">
-        <f>SUMIFS(Geral!U$2:U1017,Geral!O$2:O1017,"Passe",Geral!A$2:A1017,"Tigres",Geral!S$2:S1017,A25)</f>
+        <f>SUMIFS(Geral!U$2:U1017,Geral!R$2:R1017,"Passe",Geral!A$2:A1017,"Tigres",Geral!S$2:S1017,A25)</f>
         <v>0</v>
       </c>
       <c r="F25" s="45">
@@ -20294,7 +20294,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="45">
-        <f>SUMIFS(Geral!U$2:U1018,Geral!O$2:O1018,"Passe",Geral!A$2:A1018,"Tigres",Geral!S$2:S1018,A26)</f>
+        <f>SUMIFS(Geral!U$2:U1018,Geral!R$2:R1018,"Passe",Geral!A$2:A1018,"Tigres",Geral!S$2:S1018,A26)</f>
         <v>0</v>
       </c>
       <c r="F26" s="45">
@@ -20419,7 +20419,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="45">
-        <f>SUMIFS(Geral!U$2:U1019,Geral!O$2:O1019,"Passe",Geral!A$2:A1019,"Tigres",Geral!S$2:S1019,A27)</f>
+        <f>SUMIFS(Geral!U$2:U1019,Geral!R$2:R1019,"Passe",Geral!A$2:A1019,"Tigres",Geral!S$2:S1019,A27)</f>
         <v>0</v>
       </c>
       <c r="F27" s="45">
@@ -20544,7 +20544,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="45">
-        <f>SUMIFS(Geral!U$2:U1020,Geral!O$2:O1020,"Passe",Geral!A$2:A1020,"Tigres",Geral!S$2:S1020,A28)</f>
+        <f>SUMIFS(Geral!U$2:U1020,Geral!R$2:R1020,"Passe",Geral!A$2:A1020,"Tigres",Geral!S$2:S1020,A28)</f>
         <v>0</v>
       </c>
       <c r="F28" s="45">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="45">
-        <f>SUMIFS(Geral!U$2:U1021,Geral!O$2:O1021,"Passe",Geral!A$2:A1021,"Tigres",Geral!S$2:S1021,A29)</f>
+        <f>SUMIFS(Geral!U$2:U1021,Geral!R$2:R1021,"Passe",Geral!A$2:A1021,"Tigres",Geral!S$2:S1021,A29)</f>
         <v>0</v>
       </c>
       <c r="F29" s="45">
@@ -20794,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="45">
-        <f>SUMIFS(Geral!U$2:U1022,Geral!O$2:O1022,"Passe",Geral!A$2:A1022,"Tigres",Geral!S$2:S1022,A30)</f>
+        <f>SUMIFS(Geral!U$2:U1022,Geral!R$2:R1022,"Passe",Geral!A$2:A1022,"Tigres",Geral!S$2:S1022,A30)</f>
         <v>0</v>
       </c>
       <c r="F30" s="45">
@@ -20919,7 +20919,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="45">
-        <f>SUMIFS(Geral!U$2:U1023,Geral!O$2:O1023,"Passe",Geral!A$2:A1023,"Tigres",Geral!S$2:S1023,A31)</f>
+        <f>SUMIFS(Geral!U$2:U1023,Geral!R$2:R1023,"Passe",Geral!A$2:A1023,"Tigres",Geral!S$2:S1023,A31)</f>
         <v>0</v>
       </c>
       <c r="F31" s="45">
@@ -21044,7 +21044,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="45">
-        <f>SUMIFS(Geral!U$2:U1024,Geral!O$2:O1024,"Passe",Geral!A$2:A1024,"Tigres",Geral!S$2:S1024,A32)</f>
+        <f>SUMIFS(Geral!U$2:U1024,Geral!R$2:R1024,"Passe",Geral!A$2:A1024,"Tigres",Geral!S$2:S1024,A32)</f>
         <v>0</v>
       </c>
       <c r="F32" s="45">
@@ -21169,7 +21169,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="45">
-        <f>SUMIFS(Geral!U$2:U1025,Geral!O$2:O1025,"Passe",Geral!A$2:A1025,"Tigres",Geral!S$2:S1025,A33)</f>
+        <f>SUMIFS(Geral!U$2:U1025,Geral!R$2:R1025,"Passe",Geral!A$2:A1025,"Tigres",Geral!S$2:S1025,A33)</f>
         <v>0</v>
       </c>
       <c r="F33" s="45">
@@ -21294,7 +21294,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="45">
-        <f>SUMIFS(Geral!U$2:U1026,Geral!O$2:O1026,"Passe",Geral!A$2:A1026,"Tigres",Geral!S$2:S1026,A34)</f>
+        <f>SUMIFS(Geral!U$2:U1026,Geral!R$2:R1026,"Passe",Geral!A$2:A1026,"Tigres",Geral!S$2:S1026,A34)</f>
         <v>0</v>
       </c>
       <c r="F34" s="45">
@@ -21419,7 +21419,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="45">
-        <f>SUMIFS(Geral!U$2:U1027,Geral!O$2:O1027,"Passe",Geral!A$2:A1027,"Tigres",Geral!S$2:S1027,A35)</f>
+        <f>SUMIFS(Geral!U$2:U1027,Geral!R$2:R1027,"Passe",Geral!A$2:A1027,"Tigres",Geral!S$2:S1027,A35)</f>
         <v>0</v>
       </c>
       <c r="F35" s="45">
@@ -21544,7 +21544,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="45">
-        <f>SUMIFS(Geral!U$2:U1028,Geral!O$2:O1028,"Passe",Geral!A$2:A1028,"Tigres",Geral!S$2:S1028,A36)</f>
+        <f>SUMIFS(Geral!U$2:U1028,Geral!R$2:R1028,"Passe",Geral!A$2:A1028,"Tigres",Geral!S$2:S1028,A36)</f>
         <v>0</v>
       </c>
       <c r="F36" s="45">
@@ -21669,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="45">
-        <f>SUMIFS(Geral!U$2:U1029,Geral!O$2:O1029,"Passe",Geral!A$2:A1029,"Tigres",Geral!S$2:S1029,A37)</f>
+        <f>SUMIFS(Geral!U$2:U1029,Geral!R$2:R1029,"Passe",Geral!A$2:A1029,"Tigres",Geral!S$2:S1029,A37)</f>
         <v>0</v>
       </c>
       <c r="F37" s="45">
@@ -21794,7 +21794,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="45">
-        <f>SUMIFS(Geral!U$2:U1030,Geral!O$2:O1030,"Passe",Geral!A$2:A1030,"Tigres",Geral!S$2:S1030,A38)</f>
+        <f>SUMIFS(Geral!U$2:U1030,Geral!R$2:R1030,"Passe",Geral!A$2:A1030,"Tigres",Geral!S$2:S1030,A38)</f>
         <v>0</v>
       </c>
       <c r="F38" s="45">
@@ -21919,7 +21919,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="45">
-        <f>SUMIFS(Geral!U$2:U1031,Geral!O$2:O1031,"Passe",Geral!A$2:A1031,"Tigres",Geral!S$2:S1031,A39)</f>
+        <f>SUMIFS(Geral!U$2:U1031,Geral!R$2:R1031,"Passe",Geral!A$2:A1031,"Tigres",Geral!S$2:S1031,A39)</f>
         <v>0</v>
       </c>
       <c r="F39" s="45">
@@ -22044,7 +22044,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="45">
-        <f>SUMIFS(Geral!U$2:U1032,Geral!O$2:O1032,"Passe",Geral!A$2:A1032,"Tigres",Geral!S$2:S1032,A40)</f>
+        <f>SUMIFS(Geral!U$2:U1032,Geral!R$2:R1032,"Passe",Geral!A$2:A1032,"Tigres",Geral!S$2:S1032,A40)</f>
         <v>0</v>
       </c>
       <c r="F40" s="45">
@@ -22169,7 +22169,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="45">
-        <f>SUMIFS(Geral!U$2:U1033,Geral!O$2:O1033,"Passe",Geral!A$2:A1033,"Tigres",Geral!S$2:S1033,A41)</f>
+        <f>SUMIFS(Geral!U$2:U1033,Geral!R$2:R1033,"Passe",Geral!A$2:A1033,"Tigres",Geral!S$2:S1033,A41)</f>
         <v>0</v>
       </c>
       <c r="F41" s="45">
@@ -22294,7 +22294,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="45">
-        <f>SUMIFS(Geral!U$2:U1034,Geral!O$2:O1034,"Passe",Geral!A$2:A1034,"Tigres",Geral!S$2:S1034,A42)</f>
+        <f>SUMIFS(Geral!U$2:U1034,Geral!R$2:R1034,"Passe",Geral!A$2:A1034,"Tigres",Geral!S$2:S1034,A42)</f>
         <v>0</v>
       </c>
       <c r="F42" s="45">
@@ -22419,7 +22419,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="45">
-        <f>SUMIFS(Geral!U$2:U1035,Geral!O$2:O1035,"Passe",Geral!A$2:A1035,"Tigres",Geral!S$2:S1035,A43)</f>
+        <f>SUMIFS(Geral!U$2:U1035,Geral!R$2:R1035,"Passe",Geral!A$2:A1035,"Tigres",Geral!S$2:S1035,A43)</f>
         <v>0</v>
       </c>
       <c r="F43" s="45">
@@ -22544,7 +22544,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="45">
-        <f>SUMIFS(Geral!U$2:U1036,Geral!O$2:O1036,"Passe",Geral!A$2:A1036,"Tigres",Geral!S$2:S1036,A44)</f>
+        <f>SUMIFS(Geral!U$2:U1036,Geral!R$2:R1036,"Passe",Geral!A$2:A1036,"Tigres",Geral!S$2:S1036,A44)</f>
         <v>0</v>
       </c>
       <c r="F44" s="45">
@@ -22669,7 +22669,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="45">
-        <f>SUMIFS(Geral!U$2:U1037,Geral!O$2:O1037,"Passe",Geral!A$2:A1037,"Tigres",Geral!S$2:S1037,A45)</f>
+        <f>SUMIFS(Geral!U$2:U1037,Geral!R$2:R1037,"Passe",Geral!A$2:A1037,"Tigres",Geral!S$2:S1037,A45)</f>
         <v>0</v>
       </c>
       <c r="F45" s="45">
@@ -22794,7 +22794,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="45">
-        <f>SUMIFS(Geral!U$2:U1038,Geral!O$2:O1038,"Passe",Geral!A$2:A1038,"Tigres",Geral!S$2:S1038,A46)</f>
+        <f>SUMIFS(Geral!U$2:U1038,Geral!R$2:R1038,"Passe",Geral!A$2:A1038,"Tigres",Geral!S$2:S1038,A46)</f>
         <v>0</v>
       </c>
       <c r="F46" s="45">
@@ -22919,7 +22919,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="45">
-        <f>SUMIFS(Geral!U$2:U1039,Geral!O$2:O1039,"Passe",Geral!A$2:A1039,"Tigres",Geral!S$2:S1039,A47)</f>
+        <f>SUMIFS(Geral!U$2:U1039,Geral!R$2:R1039,"Passe",Geral!A$2:A1039,"Tigres",Geral!S$2:S1039,A47)</f>
         <v>0</v>
       </c>
       <c r="F47" s="45">
@@ -23044,7 +23044,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="45">
-        <f>SUMIFS(Geral!U$2:U1040,Geral!O$2:O1040,"Passe",Geral!A$2:A1040,"Tigres",Geral!S$2:S1040,A48)</f>
+        <f>SUMIFS(Geral!U$2:U1040,Geral!R$2:R1040,"Passe",Geral!A$2:A1040,"Tigres",Geral!S$2:S1040,A48)</f>
         <v>0</v>
       </c>
       <c r="F48" s="45">
@@ -23169,7 +23169,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="45">
-        <f>SUMIFS(Geral!U$2:U1041,Geral!O$2:O1041,"Passe",Geral!A$2:A1041,"Tigres",Geral!S$2:S1041,A49)</f>
+        <f>SUMIFS(Geral!U$2:U1041,Geral!R$2:R1041,"Passe",Geral!A$2:A1041,"Tigres",Geral!S$2:S1041,A49)</f>
         <v>0</v>
       </c>
       <c r="F49" s="45">
@@ -23294,7 +23294,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="45">
-        <f>SUMIFS(Geral!U$2:U1042,Geral!O$2:O1042,"Passe",Geral!A$2:A1042,"Tigres",Geral!S$2:S1042,A50)</f>
+        <f>SUMIFS(Geral!U$2:U1042,Geral!R$2:R1042,"Passe",Geral!A$2:A1042,"Tigres",Geral!S$2:S1042,A50)</f>
         <v>0</v>
       </c>
       <c r="F50" s="45">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="45">
-        <f>SUMIFS(Geral!U$2:U1043,Geral!O$2:O1043,"Passe",Geral!A$2:A1043,"Tigres",Geral!S$2:S1043,A51)</f>
+        <f>SUMIFS(Geral!U$2:U1043,Geral!R$2:R1043,"Passe",Geral!A$2:A1043,"Tigres",Geral!S$2:S1043,A51)</f>
         <v>0</v>
       </c>
       <c r="F51" s="45">
@@ -23544,7 +23544,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="45">
-        <f>SUMIFS(Geral!U$2:U1044,Geral!O$2:O1044,"Passe",Geral!A$2:A1044,"Tigres",Geral!S$2:S1044,A52)</f>
+        <f>SUMIFS(Geral!U$2:U1044,Geral!R$2:R1044,"Passe",Geral!A$2:A1044,"Tigres",Geral!S$2:S1044,A52)</f>
         <v>0</v>
       </c>
       <c r="F52" s="45">
@@ -23669,7 +23669,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="45">
-        <f>SUMIFS(Geral!U$2:U1045,Geral!O$2:O1045,"Passe",Geral!A$2:A1045,"Tigres",Geral!S$2:S1045,A53)</f>
+        <f>SUMIFS(Geral!U$2:U1045,Geral!R$2:R1045,"Passe",Geral!A$2:A1045,"Tigres",Geral!S$2:S1045,A53)</f>
         <v>0</v>
       </c>
       <c r="F53" s="45">
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="45">
-        <f>SUMIFS(Geral!U$2:U1046,Geral!O$2:O1046,"Passe",Geral!A$2:A1046,"Tigres",Geral!S$2:S1046,A54)</f>
+        <f>SUMIFS(Geral!U$2:U1046,Geral!R$2:R1046,"Passe",Geral!A$2:A1046,"Tigres",Geral!S$2:S1046,A54)</f>
         <v>0</v>
       </c>
       <c r="F54" s="45">
@@ -23919,7 +23919,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="45">
-        <f>SUMIFS(Geral!U$2:U1047,Geral!O$2:O1047,"Passe",Geral!A$2:A1047,"Tigres",Geral!S$2:S1047,A55)</f>
+        <f>SUMIFS(Geral!U$2:U1047,Geral!R$2:R1047,"Passe",Geral!A$2:A1047,"Tigres",Geral!S$2:S1047,A55)</f>
         <v>0</v>
       </c>
       <c r="F55" s="45">
@@ -24044,7 +24044,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="45">
-        <f>SUMIFS(Geral!U$2:U1048,Geral!O$2:O1048,"Passe",Geral!A$2:A1048,"Tigres",Geral!S$2:S1048,A56)</f>
+        <f>SUMIFS(Geral!U$2:U1048,Geral!R$2:R1048,"Passe",Geral!A$2:A1048,"Tigres",Geral!S$2:S1048,A56)</f>
         <v>0</v>
       </c>
       <c r="F56" s="45">
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="45">
-        <f>SUMIFS(Geral!U$2:U1049,Geral!O$2:O1049,"Passe",Geral!A$2:A1049,"Tigres",Geral!S$2:S1049,A57)</f>
+        <f>SUMIFS(Geral!U$2:U1049,Geral!R$2:R1049,"Passe",Geral!A$2:A1049,"Tigres",Geral!S$2:S1049,A57)</f>
         <v>0</v>
       </c>
       <c r="F57" s="45">
@@ -24294,7 +24294,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="45">
-        <f>SUMIFS(Geral!U$2:U1050,Geral!O$2:O1050,"Passe",Geral!A$2:A1050,"Tigres",Geral!S$2:S1050,A58)</f>
+        <f>SUMIFS(Geral!U$2:U1050,Geral!R$2:R1050,"Passe",Geral!A$2:A1050,"Tigres",Geral!S$2:S1050,A58)</f>
         <v>0</v>
       </c>
       <c r="F58" s="45">
@@ -24419,7 +24419,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="45">
-        <f>SUMIFS(Geral!U$2:U1051,Geral!O$2:O1051,"Passe",Geral!A$2:A1051,"Tigres",Geral!S$2:S1051,A59)</f>
+        <f>SUMIFS(Geral!U$2:U1051,Geral!R$2:R1051,"Passe",Geral!A$2:A1051,"Tigres",Geral!S$2:S1051,A59)</f>
         <v>0</v>
       </c>
       <c r="F59" s="45">
@@ -24544,7 +24544,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="45">
-        <f>SUMIFS(Geral!U$2:U1052,Geral!O$2:O1052,"Passe",Geral!A$2:A1052,"Tigres",Geral!S$2:S1052,A60)</f>
+        <f>SUMIFS(Geral!U$2:U1052,Geral!R$2:R1052,"Passe",Geral!A$2:A1052,"Tigres",Geral!S$2:S1052,A60)</f>
         <v>0</v>
       </c>
       <c r="F60" s="45">
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="45">
-        <f>SUMIFS(Geral!U$2:U1053,Geral!O$2:O1053,"Passe",Geral!A$2:A1053,"Tigres",Geral!S$2:S1053,A61)</f>
+        <f>SUMIFS(Geral!U$2:U1053,Geral!R$2:R1053,"Passe",Geral!A$2:A1053,"Tigres",Geral!S$2:S1053,A61)</f>
         <v>0</v>
       </c>
       <c r="F61" s="45">
@@ -24794,7 +24794,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="45">
-        <f>SUMIFS(Geral!U$2:U1054,Geral!O$2:O1054,"Passe",Geral!A$2:A1054,"Tigres",Geral!S$2:S1054,A62)</f>
+        <f>SUMIFS(Geral!U$2:U1054,Geral!R$2:R1054,"Passe",Geral!A$2:A1054,"Tigres",Geral!S$2:S1054,A62)</f>
         <v>0</v>
       </c>
       <c r="F62" s="45">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="45">
-        <f>SUMIFS(Geral!U$2:U1055,Geral!O$2:O1055,"Passe",Geral!A$2:A1055,"Tigres",Geral!S$2:S1055,A63)</f>
+        <f>SUMIFS(Geral!U$2:U1055,Geral!R$2:R1055,"Passe",Geral!A$2:A1055,"Tigres",Geral!S$2:S1055,A63)</f>
         <v>0</v>
       </c>
       <c r="F63" s="45">
@@ -25044,7 +25044,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="45">
-        <f>SUMIFS(Geral!U$2:U1056,Geral!O$2:O1056,"Passe",Geral!A$2:A1056,"Tigres",Geral!S$2:S1056,A64)</f>
+        <f>SUMIFS(Geral!U$2:U1056,Geral!R$2:R1056,"Passe",Geral!A$2:A1056,"Tigres",Geral!S$2:S1056,A64)</f>
         <v>0</v>
       </c>
       <c r="F64" s="45">
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="45">
-        <f>SUMIFS(Geral!U$2:U1057,Geral!O$2:O1057,"Passe",Geral!A$2:A1057,"Tigres",Geral!S$2:S1057,A65)</f>
+        <f>SUMIFS(Geral!U$2:U1057,Geral!R$2:R1057,"Passe",Geral!A$2:A1057,"Tigres",Geral!S$2:S1057,A65)</f>
         <v>0</v>
       </c>
       <c r="F65" s="45">
@@ -25294,7 +25294,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="45">
-        <f>SUMIFS(Geral!U$2:U1058,Geral!O$2:O1058,"Passe",Geral!A$2:A1058,"Tigres",Geral!S$2:S1058,A66)</f>
+        <f>SUMIFS(Geral!U$2:U1058,Geral!R$2:R1058,"Passe",Geral!A$2:A1058,"Tigres",Geral!S$2:S1058,A66)</f>
         <v>0</v>
       </c>
       <c r="F66" s="45">
@@ -25419,7 +25419,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="45">
-        <f>SUMIFS(Geral!U$2:U1059,Geral!O$2:O1059,"Passe",Geral!A$2:A1059,"Tigres",Geral!S$2:S1059,A67)</f>
+        <f>SUMIFS(Geral!U$2:U1059,Geral!R$2:R1059,"Passe",Geral!A$2:A1059,"Tigres",Geral!S$2:S1059,A67)</f>
         <v>0</v>
       </c>
       <c r="F67" s="45">
@@ -25544,7 +25544,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="45">
-        <f>SUMIFS(Geral!U$2:U1060,Geral!O$2:O1060,"Passe",Geral!A$2:A1060,"Tigres",Geral!S$2:S1060,A68)</f>
+        <f>SUMIFS(Geral!U$2:U1060,Geral!R$2:R1060,"Passe",Geral!A$2:A1060,"Tigres",Geral!S$2:S1060,A68)</f>
         <v>0</v>
       </c>
       <c r="F68" s="45">
@@ -25669,7 +25669,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="45">
-        <f>SUMIFS(Geral!U$2:U1061,Geral!O$2:O1061,"Passe",Geral!A$2:A1061,"Tigres",Geral!S$2:S1061,A69)</f>
+        <f>SUMIFS(Geral!U$2:U1061,Geral!R$2:R1061,"Passe",Geral!A$2:A1061,"Tigres",Geral!S$2:S1061,A69)</f>
         <v>0</v>
       </c>
       <c r="F69" s="45">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="45">
-        <f>SUMIFS(Geral!U$2:U1062,Geral!O$2:O1062,"Passe",Geral!A$2:A1062,"Tigres",Geral!S$2:S1062,A70)</f>
+        <f>SUMIFS(Geral!U$2:U1062,Geral!R$2:R1062,"Passe",Geral!A$2:A1062,"Tigres",Geral!S$2:S1062,A70)</f>
         <v>0</v>
       </c>
       <c r="F70" s="45">
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="45">
-        <f>SUMIFS(Geral!U$2:U1063,Geral!O$2:O1063,"Passe",Geral!A$2:A1063,"Tigres",Geral!S$2:S1063,A71)</f>
+        <f>SUMIFS(Geral!U$2:U1063,Geral!R$2:R1063,"Passe",Geral!A$2:A1063,"Tigres",Geral!S$2:S1063,A71)</f>
         <v>0</v>
       </c>
       <c r="F71" s="45">
@@ -26044,7 +26044,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="45">
-        <f>SUMIFS(Geral!U$2:U1064,Geral!O$2:O1064,"Passe",Geral!A$2:A1064,"Tigres",Geral!S$2:S1064,A72)</f>
+        <f>SUMIFS(Geral!U$2:U1064,Geral!R$2:R1064,"Passe",Geral!A$2:A1064,"Tigres",Geral!S$2:S1064,A72)</f>
         <v>0</v>
       </c>
       <c r="F72" s="45">
@@ -26169,7 +26169,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="45">
-        <f>SUMIFS(Geral!U$2:U1065,Geral!O$2:O1065,"Passe",Geral!A$2:A1065,"Tigres",Geral!S$2:S1065,A73)</f>
+        <f>SUMIFS(Geral!U$2:U1065,Geral!R$2:R1065,"Passe",Geral!A$2:A1065,"Tigres",Geral!S$2:S1065,A73)</f>
         <v>0</v>
       </c>
       <c r="F73" s="45">
@@ -26294,7 +26294,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="45">
-        <f>SUMIFS(Geral!U$2:U1066,Geral!O$2:O1066,"Passe",Geral!A$2:A1066,"Tigres",Geral!S$2:S1066,A74)</f>
+        <f>SUMIFS(Geral!U$2:U1066,Geral!R$2:R1066,"Passe",Geral!A$2:A1066,"Tigres",Geral!S$2:S1066,A74)</f>
         <v>0</v>
       </c>
       <c r="F74" s="45">
@@ -26419,7 +26419,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="45">
-        <f>SUMIFS(Geral!U$2:U1067,Geral!O$2:O1067,"Passe",Geral!A$2:A1067,"Tigres",Geral!S$2:S1067,A75)</f>
+        <f>SUMIFS(Geral!U$2:U1067,Geral!R$2:R1067,"Passe",Geral!A$2:A1067,"Tigres",Geral!S$2:S1067,A75)</f>
         <v>0</v>
       </c>
       <c r="F75" s="45">
@@ -26544,7 +26544,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="45">
-        <f>SUMIFS(Geral!U$2:U1068,Geral!O$2:O1068,"Passe",Geral!A$2:A1068,"Tigres",Geral!S$2:S1068,A76)</f>
+        <f>SUMIFS(Geral!U$2:U1068,Geral!R$2:R1068,"Passe",Geral!A$2:A1068,"Tigres",Geral!S$2:S1068,A76)</f>
         <v>0</v>
       </c>
       <c r="F76" s="45">
@@ -26669,7 +26669,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="45">
-        <f>SUMIFS(Geral!U$2:U1069,Geral!O$2:O1069,"Passe",Geral!A$2:A1069,"Tigres",Geral!S$2:S1069,A77)</f>
+        <f>SUMIFS(Geral!U$2:U1069,Geral!R$2:R1069,"Passe",Geral!A$2:A1069,"Tigres",Geral!S$2:S1069,A77)</f>
         <v>0</v>
       </c>
       <c r="F77" s="45">
@@ -26794,7 +26794,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="45">
-        <f>SUMIFS(Geral!U$2:U1070,Geral!O$2:O1070,"Passe",Geral!A$2:A1070,"Tigres",Geral!S$2:S1070,A78)</f>
+        <f>SUMIFS(Geral!U$2:U1070,Geral!R$2:R1070,"Passe",Geral!A$2:A1070,"Tigres",Geral!S$2:S1070,A78)</f>
         <v>0</v>
       </c>
       <c r="F78" s="45">
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="45">
-        <f>SUMIFS(Geral!U$2:U1071,Geral!O$2:O1071,"Passe",Geral!A$2:A1071,"Tigres",Geral!S$2:S1071,A79)</f>
+        <f>SUMIFS(Geral!U$2:U1071,Geral!R$2:R1071,"Passe",Geral!A$2:A1071,"Tigres",Geral!S$2:S1071,A79)</f>
         <v>0</v>
       </c>
       <c r="F79" s="45">
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="45">
-        <f>SUMIFS(Geral!U$2:U1072,Geral!O$2:O1072,"Passe",Geral!A$2:A1072,"Tigres",Geral!S$2:S1072,A80)</f>
+        <f>SUMIFS(Geral!U$2:U1072,Geral!R$2:R1072,"Passe",Geral!A$2:A1072,"Tigres",Geral!S$2:S1072,A80)</f>
         <v>0</v>
       </c>
       <c r="F80" s="45">
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="45">
-        <f>SUMIFS(Geral!U$2:U1073,Geral!O$2:O1073,"Passe",Geral!A$2:A1073,"Tigres",Geral!S$2:S1073,A81)</f>
+        <f>SUMIFS(Geral!U$2:U1073,Geral!R$2:R1073,"Passe",Geral!A$2:A1073,"Tigres",Geral!S$2:S1073,A81)</f>
         <v>0</v>
       </c>
       <c r="F81" s="45">
@@ -27294,7 +27294,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="45">
-        <f>SUMIFS(Geral!U$2:U1074,Geral!O$2:O1074,"Passe",Geral!A$2:A1074,"Tigres",Geral!S$2:S1074,A82)</f>
+        <f>SUMIFS(Geral!U$2:U1074,Geral!R$2:R1074,"Passe",Geral!A$2:A1074,"Tigres",Geral!S$2:S1074,A82)</f>
         <v>0</v>
       </c>
       <c r="F82" s="45">
@@ -27419,7 +27419,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="45">
-        <f>SUMIFS(Geral!U$2:U1075,Geral!O$2:O1075,"Passe",Geral!A$2:A1075,"Tigres",Geral!S$2:S1075,A83)</f>
+        <f>SUMIFS(Geral!U$2:U1075,Geral!R$2:R1075,"Passe",Geral!A$2:A1075,"Tigres",Geral!S$2:S1075,A83)</f>
         <v>0</v>
       </c>
       <c r="F83" s="45">
@@ -27544,7 +27544,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="45">
-        <f>SUMIFS(Geral!U$2:U1076,Geral!O$2:O1076,"Passe",Geral!A$2:A1076,"Tigres",Geral!S$2:S1076,A84)</f>
+        <f>SUMIFS(Geral!U$2:U1076,Geral!R$2:R1076,"Passe",Geral!A$2:A1076,"Tigres",Geral!S$2:S1076,A84)</f>
         <v>0</v>
       </c>
       <c r="F84" s="45">
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="45">
-        <f>SUMIFS(Geral!U$2:U1077,Geral!O$2:O1077,"Passe",Geral!A$2:A1077,"Tigres",Geral!S$2:S1077,A85)</f>
+        <f>SUMIFS(Geral!U$2:U1077,Geral!R$2:R1077,"Passe",Geral!A$2:A1077,"Tigres",Geral!S$2:S1077,A85)</f>
         <v>0</v>
       </c>
       <c r="F85" s="45">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="45">
-        <f>SUMIFS(Geral!U$2:U1078,Geral!O$2:O1078,"Passe",Geral!A$2:A1078,"Tigres",Geral!S$2:S1078,A86)</f>
+        <f>SUMIFS(Geral!U$2:U1078,Geral!R$2:R1078,"Passe",Geral!A$2:A1078,"Tigres",Geral!S$2:S1078,A86)</f>
         <v>0</v>
       </c>
       <c r="F86" s="45">
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="45">
-        <f>SUMIFS(Geral!U$2:U1079,Geral!O$2:O1079,"Passe",Geral!A$2:A1079,"Tigres",Geral!S$2:S1079,A87)</f>
+        <f>SUMIFS(Geral!U$2:U1079,Geral!R$2:R1079,"Passe",Geral!A$2:A1079,"Tigres",Geral!S$2:S1079,A87)</f>
         <v>0</v>
       </c>
       <c r="F87" s="45">
@@ -28044,7 +28044,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="45">
-        <f>SUMIFS(Geral!U$2:U1080,Geral!O$2:O1080,"Passe",Geral!A$2:A1080,"Tigres",Geral!S$2:S1080,A88)</f>
+        <f>SUMIFS(Geral!U$2:U1080,Geral!R$2:R1080,"Passe",Geral!A$2:A1080,"Tigres",Geral!S$2:S1080,A88)</f>
         <v>0</v>
       </c>
       <c r="F88" s="45">
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="45">
-        <f>SUMIFS(Geral!U$2:U1081,Geral!O$2:O1081,"Passe",Geral!A$2:A1081,"Tigres",Geral!S$2:S1081,A89)</f>
+        <f>SUMIFS(Geral!U$2:U1081,Geral!R$2:R1081,"Passe",Geral!A$2:A1081,"Tigres",Geral!S$2:S1081,A89)</f>
         <v>0</v>
       </c>
       <c r="F89" s="45">
@@ -28294,7 +28294,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="45">
-        <f>SUMIFS(Geral!U$2:U1082,Geral!O$2:O1082,"Passe",Geral!A$2:A1082,"Tigres",Geral!S$2:S1082,A90)</f>
+        <f>SUMIFS(Geral!U$2:U1082,Geral!R$2:R1082,"Passe",Geral!A$2:A1082,"Tigres",Geral!S$2:S1082,A90)</f>
         <v>0</v>
       </c>
       <c r="F90" s="45">
@@ -28419,7 +28419,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="45">
-        <f>SUMIFS(Geral!U$2:U1083,Geral!O$2:O1083,"Passe",Geral!A$2:A1083,"Tigres",Geral!S$2:S1083,A91)</f>
+        <f>SUMIFS(Geral!U$2:U1083,Geral!R$2:R1083,"Passe",Geral!A$2:A1083,"Tigres",Geral!S$2:S1083,A91)</f>
         <v>0</v>
       </c>
       <c r="F91" s="45">
@@ -28544,7 +28544,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="45">
-        <f>SUMIFS(Geral!U$2:U1084,Geral!O$2:O1084,"Passe",Geral!A$2:A1084,"Tigres",Geral!S$2:S1084,A92)</f>
+        <f>SUMIFS(Geral!U$2:U1084,Geral!R$2:R1084,"Passe",Geral!A$2:A1084,"Tigres",Geral!S$2:S1084,A92)</f>
         <v>0</v>
       </c>
       <c r="F92" s="45">
@@ -28669,7 +28669,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="45">
-        <f>SUMIFS(Geral!U$2:U1085,Geral!O$2:O1085,"Passe",Geral!A$2:A1085,"Tigres",Geral!S$2:S1085,A93)</f>
+        <f>SUMIFS(Geral!U$2:U1085,Geral!R$2:R1085,"Passe",Geral!A$2:A1085,"Tigres",Geral!S$2:S1085,A93)</f>
         <v>0</v>
       </c>
       <c r="F93" s="45">
@@ -28794,7 +28794,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="45">
-        <f>SUMIFS(Geral!U$2:U1086,Geral!O$2:O1086,"Passe",Geral!A$2:A1086,"Tigres",Geral!S$2:S1086,A94)</f>
+        <f>SUMIFS(Geral!U$2:U1086,Geral!R$2:R1086,"Passe",Geral!A$2:A1086,"Tigres",Geral!S$2:S1086,A94)</f>
         <v>0</v>
       </c>
       <c r="F94" s="45">
@@ -28919,7 +28919,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="45">
-        <f>SUMIFS(Geral!U$2:U1087,Geral!O$2:O1087,"Passe",Geral!A$2:A1087,"Tigres",Geral!S$2:S1087,A95)</f>
+        <f>SUMIFS(Geral!U$2:U1087,Geral!R$2:R1087,"Passe",Geral!A$2:A1087,"Tigres",Geral!S$2:S1087,A95)</f>
         <v>0</v>
       </c>
       <c r="F95" s="45">
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="45">
-        <f>SUMIFS(Geral!U$2:U1088,Geral!O$2:O1088,"Passe",Geral!A$2:A1088,"Tigres",Geral!S$2:S1088,A96)</f>
+        <f>SUMIFS(Geral!U$2:U1088,Geral!R$2:R1088,"Passe",Geral!A$2:A1088,"Tigres",Geral!S$2:S1088,A96)</f>
         <v>0</v>
       </c>
       <c r="F96" s="45">
@@ -29169,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="45">
-        <f>SUMIFS(Geral!U$2:U1089,Geral!O$2:O1089,"Passe",Geral!A$2:A1089,"Tigres",Geral!S$2:S1089,A97)</f>
+        <f>SUMIFS(Geral!U$2:U1089,Geral!R$2:R1089,"Passe",Geral!A$2:A1089,"Tigres",Geral!S$2:S1089,A97)</f>
         <v>0</v>
       </c>
       <c r="F97" s="45">
@@ -29294,7 +29294,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="45">
-        <f>SUMIFS(Geral!U$2:U1090,Geral!O$2:O1090,"Passe",Geral!A$2:A1090,"Tigres",Geral!S$2:S1090,A98)</f>
+        <f>SUMIFS(Geral!U$2:U1090,Geral!R$2:R1090,"Passe",Geral!A$2:A1090,"Tigres",Geral!S$2:S1090,A98)</f>
         <v>0</v>
       </c>
       <c r="F98" s="45">
@@ -29419,7 +29419,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="45">
-        <f>SUMIFS(Geral!U$2:U1091,Geral!O$2:O1091,"Passe",Geral!A$2:A1091,"Tigres",Geral!S$2:S1091,A99)</f>
+        <f>SUMIFS(Geral!U$2:U1091,Geral!R$2:R1091,"Passe",Geral!A$2:A1091,"Tigres",Geral!S$2:S1091,A99)</f>
         <v>0</v>
       </c>
       <c r="F99" s="45">
@@ -29544,7 +29544,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="45">
-        <f>SUMIFS(Geral!U$2:U1092,Geral!O$2:O1092,"Passe",Geral!A$2:A1092,"Tigres",Geral!S$2:S1092,A100)</f>
+        <f>SUMIFS(Geral!U$2:U1092,Geral!R$2:R1092,"Passe",Geral!A$2:A1092,"Tigres",Geral!S$2:S1092,A100)</f>
         <v>0</v>
       </c>
       <c r="F100" s="45">
@@ -29669,7 +29669,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="45">
-        <f>SUMIFS(Geral!U$2:U1093,Geral!O$2:O1093,"Passe",Geral!A$2:A1093,"Tigres",Geral!S$2:S1093,A101)</f>
+        <f>SUMIFS(Geral!U$2:U1093,Geral!R$2:R1093,"Passe",Geral!A$2:A1093,"Tigres",Geral!S$2:S1093,A101)</f>
         <v>0</v>
       </c>
       <c r="F101" s="45">
